--- a/ExcelData/Character.xlsx
+++ b/ExcelData/Character.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\Fight\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620EF4E6-D75A-432E-807E-D52FFAFA776F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E83F97-4329-460B-ABE9-B6CE8AEADE3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4480" yWindow="2080" windowWidth="20510" windowHeight="11770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="980" yWindow="1740" windowWidth="23520" windowHeight="11770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>索引</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,6 +124,22 @@
   </si>
   <si>
     <t>W001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流浪法师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特种战士</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -452,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -583,7 +599,7 @@
         <v>0.1</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G4" s="1">
         <v>1000</v>
@@ -595,6 +611,70 @@
         <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>80</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G5" s="1">
+        <v>800</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="I5" s="1">
+        <v>25</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1">
+        <v>120</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1100</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="I6" s="1">
+        <v>25</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>24</v>
       </c>
     </row>
